--- a/발표자료/진행상황.xlsx
+++ b/발표자료/진행상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\univ\2\2-2\2DGP\Rugby\발표자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90752AF-4F27-4CB9-BC25-5B6D44E6A13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FF574-C797-4A52-83CC-6336E5605A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공의 회전, 던지기, 줍기, 선수들의 공 줍기, 공을 잡으면 골라인으로 달려가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어의 기술 사용에 따른 상태 변화 구현</t>
   </si>
   <si>
@@ -69,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전력질주, 태클 상태 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본적인 플레이어 캐릭터의 움직임 구현(상하좌우 이동), 선수들 생성, 공 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,17 +81,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료: 플레이어가 공을 잡은 상대 선수를 잡음
-미구현: 태클시 충돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사운드 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>평균 진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료: 플레이어가 공을 잡은 상대 선수를 잡음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태클시 충돌</t>
+  </si>
+  <si>
+    <t>공 던지기, 줍기, ai가 공을 잡으면 골라인으로 달려가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘어짐 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력질주 및 태클 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동에 따른 상태 변경, 공 움직임, 튕김 및 회전</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,11 +175,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,221 +467,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="67.875" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6">
-        <f>AVERAGE(D2:D17)</f>
-        <v>0.875</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9">
+        <f>AVERAGE(F2:F17)</f>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="25">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
